--- a/Code/Results/Cases/Case_0_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_150/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.39254026850642</v>
+        <v>13.45843057308078</v>
       </c>
       <c r="D2">
-        <v>3.345569271255879</v>
+        <v>5.673609554272452</v>
       </c>
       <c r="E2">
-        <v>11.51715980776104</v>
+        <v>13.82782050721514</v>
       </c>
       <c r="F2">
-        <v>38.85791678996518</v>
+        <v>34.00327528687052</v>
       </c>
       <c r="G2">
-        <v>2.004984670427397</v>
+        <v>3.640837487772983</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.987604228685102</v>
+        <v>9.225315554510207</v>
       </c>
       <c r="O2">
-        <v>31.43017226603311</v>
+        <v>29.721790951329</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.72500585479649</v>
+        <v>13.36616548088737</v>
       </c>
       <c r="D3">
-        <v>3.304012705962718</v>
+        <v>5.686663600238081</v>
       </c>
       <c r="E3">
-        <v>10.97044231207413</v>
+        <v>13.77440445474068</v>
       </c>
       <c r="F3">
-        <v>36.37393659926128</v>
+        <v>33.45556674027195</v>
       </c>
       <c r="G3">
-        <v>2.017543224348843</v>
+        <v>3.645260097764412</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.848179531004587</v>
+        <v>9.233124427980497</v>
       </c>
       <c r="O3">
-        <v>29.51642527871616</v>
+        <v>29.35654874916341</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>11.31009524920675</v>
+        <v>13.31305664959182</v>
       </c>
       <c r="D4">
-        <v>3.281939918277874</v>
+        <v>5.695707863816803</v>
       </c>
       <c r="E4">
-        <v>10.63423366025518</v>
+        <v>13.74516280287109</v>
       </c>
       <c r="F4">
-        <v>34.80649681364377</v>
+        <v>33.12610478851779</v>
       </c>
       <c r="G4">
-        <v>2.025400438504172</v>
+        <v>3.648115624878392</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.766469133888487</v>
+        <v>9.239670170994421</v>
       </c>
       <c r="O4">
-        <v>28.31455473916303</v>
+        <v>29.13942427315405</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>11.13986859026838</v>
+        <v>13.29232169284377</v>
       </c>
       <c r="D5">
-        <v>3.273756224448961</v>
+        <v>5.699651528292306</v>
       </c>
       <c r="E5">
-        <v>10.49719399826125</v>
+        <v>13.7341468655752</v>
       </c>
       <c r="F5">
-        <v>34.15734351253605</v>
+        <v>32.9937423111425</v>
       </c>
       <c r="G5">
-        <v>2.028643153993632</v>
+        <v>3.649314633341602</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.734132989306077</v>
+        <v>9.242777148845271</v>
       </c>
       <c r="O5">
-        <v>27.81827633354643</v>
+        <v>29.05283770159671</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>11.11153769858008</v>
+        <v>13.28893392007829</v>
       </c>
       <c r="D6">
-        <v>3.272444784972372</v>
+        <v>5.700321935737565</v>
       </c>
       <c r="E6">
-        <v>10.47444025547193</v>
+        <v>13.73237220620938</v>
       </c>
       <c r="F6">
-        <v>34.04893311410782</v>
+        <v>32.97188325159983</v>
       </c>
       <c r="G6">
-        <v>2.029184182650717</v>
+        <v>3.649515867633657</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.728821169637606</v>
+        <v>9.243319581575239</v>
       </c>
       <c r="O6">
-        <v>27.73548631938266</v>
+        <v>29.03857723123516</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>11.30780396540419</v>
+        <v>13.31277331633441</v>
       </c>
       <c r="D7">
-        <v>3.281826335587723</v>
+        <v>5.695760005535521</v>
       </c>
       <c r="E7">
-        <v>10.63238547005688</v>
+        <v>13.74501058573994</v>
       </c>
       <c r="F7">
-        <v>34.79778383798372</v>
+        <v>33.12431179315842</v>
       </c>
       <c r="G7">
-        <v>2.025444000448433</v>
+        <v>3.648131651766386</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.766029167009709</v>
+        <v>9.239710294240801</v>
       </c>
       <c r="O7">
-        <v>28.30788768510686</v>
+        <v>29.13824874237357</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12.16347875825338</v>
+        <v>13.42589282295306</v>
       </c>
       <c r="D8">
-        <v>3.33049192415606</v>
+        <v>5.677896594854479</v>
       </c>
       <c r="E8">
-        <v>11.32880913725871</v>
+        <v>13.80866860424339</v>
       </c>
       <c r="F8">
-        <v>38.01029237581602</v>
+        <v>33.81311469682641</v>
       </c>
       <c r="G8">
-        <v>2.009287091715469</v>
+        <v>3.642333429923385</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.938709830151813</v>
+        <v>9.227644183275331</v>
       </c>
       <c r="O8">
-        <v>30.7759799515433</v>
+        <v>29.59443518759499</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>13.79867873743787</v>
+        <v>13.67501977545938</v>
       </c>
       <c r="D9">
-        <v>3.455923754367423</v>
+        <v>5.651062814987629</v>
       </c>
       <c r="E9">
-        <v>12.68789123979272</v>
+        <v>13.96139696018246</v>
       </c>
       <c r="F9">
-        <v>44.15536350745138</v>
+        <v>35.21014331858665</v>
       </c>
       <c r="G9">
-        <v>1.978556090650483</v>
+        <v>3.632067476928846</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.309303248579859</v>
+        <v>9.217907576451886</v>
       </c>
       <c r="O9">
-        <v>35.56127734704339</v>
+        <v>30.54108561839029</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>14.97411268640206</v>
+        <v>13.87351330624757</v>
       </c>
       <c r="D10">
-        <v>3.570531642957314</v>
+        <v>5.636387773005543</v>
       </c>
       <c r="E10">
-        <v>13.68221681696224</v>
+        <v>14.09010922011087</v>
       </c>
       <c r="F10">
-        <v>48.57609940499476</v>
+        <v>36.2541036030977</v>
       </c>
       <c r="G10">
-        <v>1.956225568301585</v>
+        <v>3.625188936926795</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.603048634752796</v>
+        <v>9.219279807822971</v>
       </c>
       <c r="O10">
-        <v>39.16638368586652</v>
+        <v>31.26204015738254</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>15.50439243461689</v>
+        <v>13.96689110188249</v>
       </c>
       <c r="D11">
-        <v>3.628636767488638</v>
+        <v>5.630815051330783</v>
       </c>
       <c r="E11">
-        <v>14.1346042786025</v>
+        <v>14.15211736002805</v>
       </c>
       <c r="F11">
-        <v>50.53915316072887</v>
+        <v>36.73061710149481</v>
       </c>
       <c r="G11">
-        <v>1.946030925056402</v>
+        <v>3.622201851554446</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.741989872040934</v>
+        <v>9.221760514494699</v>
       </c>
       <c r="O11">
-        <v>40.76633733074868</v>
+        <v>31.59417816948039</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>15.70473741812533</v>
+        <v>14.00266896467729</v>
       </c>
       <c r="D12">
-        <v>3.651607021092596</v>
+        <v>5.628864128346564</v>
       </c>
       <c r="E12">
-        <v>14.30607310686336</v>
+        <v>14.17608267467964</v>
       </c>
       <c r="F12">
-        <v>51.27649700280084</v>
+        <v>36.91111181689759</v>
       </c>
       <c r="G12">
-        <v>1.942156237962979</v>
+        <v>3.621090983327049</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.795441759060691</v>
+        <v>9.222966993544306</v>
       </c>
       <c r="O12">
-        <v>41.36719900634817</v>
+        <v>31.72043532706199</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>15.66160645118148</v>
+        <v>13.99494539814853</v>
       </c>
       <c r="D13">
-        <v>3.646615017953195</v>
+        <v>5.629277196091112</v>
       </c>
       <c r="E13">
-        <v>14.26913404251756</v>
+        <v>14.17089999553255</v>
       </c>
       <c r="F13">
-        <v>51.11794854975872</v>
+        <v>36.87223969149542</v>
       </c>
       <c r="G13">
-        <v>1.942991512168518</v>
+        <v>3.621329329158109</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.783891276839496</v>
+        <v>9.222695277311534</v>
       </c>
       <c r="O13">
-        <v>41.23800164724499</v>
+        <v>31.69322391484194</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>15.52088290241589</v>
+        <v>13.96982634539394</v>
       </c>
       <c r="D14">
-        <v>3.630506471623477</v>
+        <v>5.63065135006889</v>
       </c>
       <c r="E14">
-        <v>14.148706833519</v>
+        <v>14.15407937401398</v>
       </c>
       <c r="F14">
-        <v>50.59992984459203</v>
+        <v>36.74546654308774</v>
       </c>
       <c r="G14">
-        <v>1.945712493662442</v>
+        <v>3.62211005420924</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.746370102840762</v>
+        <v>9.221854419159637</v>
       </c>
       <c r="O14">
-        <v>40.81586603598458</v>
+        <v>31.60455638953842</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>15.43463214032145</v>
+        <v>13.95449382897091</v>
       </c>
       <c r="D15">
-        <v>3.620769013941111</v>
+        <v>5.631513831998693</v>
       </c>
       <c r="E15">
-        <v>14.07496802564007</v>
+        <v>14.14383891528421</v>
       </c>
       <c r="F15">
-        <v>50.28187356329593</v>
+        <v>36.66781545417791</v>
       </c>
       <c r="G15">
-        <v>1.947377032036017</v>
+        <v>3.622590907166764</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.723498952378655</v>
+        <v>9.221374153538996</v>
       </c>
       <c r="O15">
-        <v>40.55666886465975</v>
+        <v>31.55030453097936</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>14.93938203633862</v>
+        <v>13.86747070858824</v>
       </c>
       <c r="D16">
-        <v>3.566863337161905</v>
+        <v>5.636774222147579</v>
       </c>
       <c r="E16">
-        <v>13.65266492937935</v>
+        <v>14.08612531612187</v>
       </c>
       <c r="F16">
-        <v>48.44691444306193</v>
+        <v>36.22297902924894</v>
       </c>
       <c r="G16">
-        <v>1.956890347912895</v>
+        <v>3.62538699510964</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.59408127997655</v>
+        <v>9.219155059316932</v>
       </c>
       <c r="O16">
-        <v>39.06107800152535</v>
+        <v>31.24040815154056</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>14.63453158926611</v>
+        <v>13.81485638975998</v>
       </c>
       <c r="D17">
-        <v>3.535394668693371</v>
+        <v>5.64028433899758</v>
       </c>
       <c r="E17">
-        <v>13.3936993354715</v>
+        <v>14.05159630043361</v>
       </c>
       <c r="F17">
-        <v>47.30950414085309</v>
+        <v>35.95036740577846</v>
       </c>
       <c r="G17">
-        <v>1.96271122386624</v>
+        <v>3.627138571631217</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.516095195283138</v>
+        <v>9.218269343641715</v>
       </c>
       <c r="O17">
-        <v>38.13381408102222</v>
+        <v>31.05128235415341</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>14.45875805168956</v>
+        <v>13.7848857124775</v>
       </c>
       <c r="D18">
-        <v>3.517849141988606</v>
+        <v>5.642407044972813</v>
       </c>
       <c r="E18">
-        <v>13.24474256750822</v>
+        <v>14.03206227613798</v>
       </c>
       <c r="F18">
-        <v>46.65071808046147</v>
+        <v>35.79373059941138</v>
       </c>
       <c r="G18">
-        <v>1.966056430874275</v>
+        <v>3.628159406073175</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.471734464572926</v>
+        <v>9.217934644857726</v>
       </c>
       <c r="O18">
-        <v>37.59665511190985</v>
+        <v>30.94290182568165</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>14.39916574433032</v>
+        <v>13.77478901584925</v>
       </c>
       <c r="D19">
-        <v>3.512000726612797</v>
+        <v>5.643143558397613</v>
       </c>
       <c r="E19">
-        <v>13.19430366767185</v>
+        <v>14.02550478367895</v>
       </c>
       <c r="F19">
-        <v>46.42685470523861</v>
+        <v>35.74072956936628</v>
       </c>
       <c r="G19">
-        <v>1.967188827588491</v>
+        <v>3.628507344417283</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.456797746434136</v>
+        <v>9.217851327196829</v>
       </c>
       <c r="O19">
-        <v>37.41410569764927</v>
+        <v>30.90627823508239</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>14.66702704926744</v>
+        <v>13.82042726717822</v>
       </c>
       <c r="D20">
-        <v>3.538686452178545</v>
+        <v>5.639899934923479</v>
       </c>
       <c r="E20">
-        <v>13.42126646066819</v>
+        <v>14.05523830757428</v>
       </c>
       <c r="F20">
-        <v>47.43105147332243</v>
+        <v>35.97937193093664</v>
       </c>
       <c r="G20">
-        <v>1.962091932354596</v>
+        <v>3.626950730202498</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.524345268256411</v>
+        <v>9.218345543099947</v>
       </c>
       <c r="O20">
-        <v>38.23291346768309</v>
+        <v>31.07137460360341</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>15.56222755873744</v>
+        <v>13.97719329052193</v>
       </c>
       <c r="D21">
-        <v>3.635210734643121</v>
+        <v>5.630243397387478</v>
       </c>
       <c r="E21">
-        <v>14.18407337491251</v>
+        <v>14.15900696467694</v>
       </c>
       <c r="F21">
-        <v>50.75223995908959</v>
+        <v>36.78270297203278</v>
       </c>
       <c r="G21">
-        <v>1.944913739950604</v>
+        <v>3.621880187184462</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.757367551334989</v>
+        <v>9.222094150543068</v>
       </c>
       <c r="O21">
-        <v>40.93998657555967</v>
+        <v>31.63058798430457</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>16.14474327494901</v>
+        <v>14.0820713647512</v>
       </c>
       <c r="D22">
-        <v>3.703997103042288</v>
+        <v>5.624861408286137</v>
       </c>
       <c r="E22">
-        <v>14.68365970767417</v>
+        <v>14.22964135465721</v>
       </c>
       <c r="F22">
-        <v>52.88828504915342</v>
+        <v>37.3079340442691</v>
       </c>
       <c r="G22">
-        <v>1.933598690936435</v>
+        <v>3.618684413146165</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.914595059633672</v>
+        <v>9.226100839348996</v>
       </c>
       <c r="O22">
-        <v>42.68050702900402</v>
+        <v>31.99883269342864</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>15.83399977487319</v>
+        <v>14.02588293528819</v>
       </c>
       <c r="D23">
-        <v>3.666721649538621</v>
+        <v>5.627648625605822</v>
       </c>
       <c r="E23">
-        <v>14.41685815725261</v>
+        <v>14.19168929947763</v>
       </c>
       <c r="F23">
-        <v>51.75105508127943</v>
+        <v>37.02764794139443</v>
       </c>
       <c r="G23">
-        <v>1.939649195053385</v>
+        <v>3.620379297130374</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.830198273193619</v>
+        <v>9.223819945605511</v>
       </c>
       <c r="O23">
-        <v>41.75389364087393</v>
+        <v>31.80207850291596</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>14.6523374556375</v>
+        <v>13.81790780568107</v>
       </c>
       <c r="D24">
-        <v>3.537196543458342</v>
+        <v>5.640073397965302</v>
       </c>
       <c r="E24">
-        <v>13.40880360425599</v>
+        <v>14.05359076728036</v>
       </c>
       <c r="F24">
-        <v>47.3761151681967</v>
+        <v>35.96625868700853</v>
       </c>
       <c r="G24">
-        <v>1.962371917418471</v>
+        <v>3.627035610225263</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.520613937518401</v>
+        <v>9.218310549773793</v>
       </c>
       <c r="O24">
-        <v>38.18812334341501</v>
+        <v>31.06228979734317</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>13.36107660358971</v>
+        <v>13.60481832645837</v>
       </c>
       <c r="D25">
-        <v>3.418378716719378</v>
+        <v>5.657440090125072</v>
       </c>
       <c r="E25">
-        <v>12.32111188193889</v>
+        <v>13.9171410040944</v>
       </c>
       <c r="F25">
-        <v>42.48007263441962</v>
+        <v>34.82835901985344</v>
       </c>
       <c r="G25">
-        <v>1.986799265180999</v>
+        <v>3.63472743262612</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.205452475940565</v>
+        <v>9.219046490638757</v>
       </c>
       <c r="O25">
-        <v>34.19401202137522</v>
+        <v>30.28005906737459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_150/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_150/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.45843057308078</v>
+        <v>12.3925402685064</v>
       </c>
       <c r="D2">
-        <v>5.673609554272452</v>
+        <v>3.345569271255842</v>
       </c>
       <c r="E2">
-        <v>13.82782050721514</v>
+        <v>11.51715980776104</v>
       </c>
       <c r="F2">
-        <v>34.00327528687052</v>
+        <v>38.85791678996524</v>
       </c>
       <c r="G2">
-        <v>3.640837487772983</v>
+        <v>2.004984670427139</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.225315554510207</v>
+        <v>5.987604228685114</v>
       </c>
       <c r="O2">
-        <v>29.721790951329</v>
+        <v>31.43017226603314</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13.36616548088737</v>
+        <v>11.72500585479651</v>
       </c>
       <c r="D3">
-        <v>5.686663600238081</v>
+        <v>3.30401270596279</v>
       </c>
       <c r="E3">
-        <v>13.77440445474068</v>
+        <v>10.97044231207415</v>
       </c>
       <c r="F3">
-        <v>33.45556674027195</v>
+        <v>36.37393659926128</v>
       </c>
       <c r="G3">
-        <v>3.645260097764412</v>
+        <v>2.017543224348842</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.233124427980497</v>
+        <v>5.848179531004597</v>
       </c>
       <c r="O3">
-        <v>29.35654874916341</v>
+        <v>29.51642527871616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>13.31305664959182</v>
+        <v>11.31009524920677</v>
       </c>
       <c r="D4">
-        <v>5.695707863816803</v>
+        <v>3.28193991827788</v>
       </c>
       <c r="E4">
-        <v>13.74516280287109</v>
+        <v>10.63423366025518</v>
       </c>
       <c r="F4">
-        <v>33.12610478851779</v>
+        <v>34.80649681364377</v>
       </c>
       <c r="G4">
-        <v>3.648115624878392</v>
+        <v>2.025400438504305</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.239670170994421</v>
+        <v>5.766469133888444</v>
       </c>
       <c r="O4">
-        <v>29.13942427315405</v>
+        <v>28.31455473916302</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>13.29232169284377</v>
+        <v>11.13986859026836</v>
       </c>
       <c r="D5">
-        <v>5.699651528292306</v>
+        <v>3.273756224449116</v>
       </c>
       <c r="E5">
-        <v>13.7341468655752</v>
+        <v>10.49719399826129</v>
       </c>
       <c r="F5">
-        <v>32.9937423111425</v>
+        <v>34.15734351253605</v>
       </c>
       <c r="G5">
-        <v>3.649314633341602</v>
+        <v>2.028643153993636</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.242777148845271</v>
+        <v>5.734132989306096</v>
       </c>
       <c r="O5">
-        <v>29.05283770159671</v>
+        <v>27.81827633354648</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>13.28893392007829</v>
+        <v>11.11153769858013</v>
       </c>
       <c r="D6">
-        <v>5.700321935737565</v>
+        <v>3.272444784972327</v>
       </c>
       <c r="E6">
-        <v>13.73237220620938</v>
+        <v>10.47444025547193</v>
       </c>
       <c r="F6">
-        <v>32.97188325159983</v>
+        <v>34.04893311410774</v>
       </c>
       <c r="G6">
-        <v>3.649515867633657</v>
+        <v>2.029184182650852</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.243319581575239</v>
+        <v>5.728821169637569</v>
       </c>
       <c r="O6">
-        <v>29.03857723123516</v>
+        <v>27.73548631938257</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>13.31277331633441</v>
+        <v>11.30780396540417</v>
       </c>
       <c r="D7">
-        <v>5.695760005535521</v>
+        <v>3.281826335587646</v>
       </c>
       <c r="E7">
-        <v>13.74501058573994</v>
+        <v>10.63238547005688</v>
       </c>
       <c r="F7">
-        <v>33.12431179315842</v>
+        <v>34.79778383798374</v>
       </c>
       <c r="G7">
-        <v>3.648131651766386</v>
+        <v>2.025444000448566</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.239710294240801</v>
+        <v>5.766029167009749</v>
       </c>
       <c r="O7">
-        <v>29.13824874237357</v>
+        <v>28.30788768510689</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>13.42589282295306</v>
+        <v>12.16347875825344</v>
       </c>
       <c r="D8">
-        <v>5.677896594854479</v>
+        <v>3.330491924156034</v>
       </c>
       <c r="E8">
-        <v>13.80866860424339</v>
+        <v>11.32880913725871</v>
       </c>
       <c r="F8">
-        <v>33.81311469682641</v>
+        <v>38.01029237581603</v>
       </c>
       <c r="G8">
-        <v>3.642333429923385</v>
+        <v>2.009287091715469</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.227644183275331</v>
+        <v>5.938709830151774</v>
       </c>
       <c r="O8">
-        <v>29.59443518759499</v>
+        <v>30.7759799515433</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>13.67501977545938</v>
+        <v>13.79867873743788</v>
       </c>
       <c r="D9">
-        <v>5.651062814987629</v>
+        <v>3.455923754367393</v>
       </c>
       <c r="E9">
-        <v>13.96139696018246</v>
+        <v>12.6878912397927</v>
       </c>
       <c r="F9">
-        <v>35.21014331858665</v>
+        <v>44.15536350745135</v>
       </c>
       <c r="G9">
-        <v>3.632067476928846</v>
+        <v>1.978556090650481</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.217907576451886</v>
+        <v>6.309303248579821</v>
       </c>
       <c r="O9">
-        <v>30.54108561839029</v>
+        <v>35.56127734704339</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>13.87351330624757</v>
+        <v>14.97411268640209</v>
       </c>
       <c r="D10">
-        <v>5.636387773005543</v>
+        <v>3.570531642957336</v>
       </c>
       <c r="E10">
-        <v>14.09010922011087</v>
+        <v>13.68221681696225</v>
       </c>
       <c r="F10">
-        <v>36.2541036030977</v>
+        <v>48.57609940499494</v>
       </c>
       <c r="G10">
-        <v>3.625188936926795</v>
+        <v>1.956225568301721</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.219279807822971</v>
+        <v>6.603048634752801</v>
       </c>
       <c r="O10">
-        <v>31.26204015738254</v>
+        <v>39.16638368586666</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>13.96689110188249</v>
+        <v>15.5043924346169</v>
       </c>
       <c r="D11">
-        <v>5.630815051330783</v>
+        <v>3.62863676748867</v>
       </c>
       <c r="E11">
-        <v>14.15211736002805</v>
+        <v>14.13460427860249</v>
       </c>
       <c r="F11">
-        <v>36.73061710149481</v>
+        <v>50.53915316072882</v>
       </c>
       <c r="G11">
-        <v>3.622201851554446</v>
+        <v>1.946030925056407</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.221760514494699</v>
+        <v>6.741989872040898</v>
       </c>
       <c r="O11">
-        <v>31.59417816948039</v>
+        <v>40.76633733074866</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>14.00266896467729</v>
+        <v>15.70473741812534</v>
       </c>
       <c r="D12">
-        <v>5.628864128346564</v>
+        <v>3.651607021092682</v>
       </c>
       <c r="E12">
-        <v>14.17608267467964</v>
+        <v>14.30607310686337</v>
       </c>
       <c r="F12">
-        <v>36.91111181689759</v>
+        <v>51.27649700280088</v>
       </c>
       <c r="G12">
-        <v>3.621090983327049</v>
+        <v>1.942156237962841</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.222966993544306</v>
+        <v>6.795441759060678</v>
       </c>
       <c r="O12">
-        <v>31.72043532706199</v>
+        <v>41.36719900634823</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>13.99494539814853</v>
+        <v>15.66160645118154</v>
       </c>
       <c r="D13">
-        <v>5.629277196091112</v>
+        <v>3.646615017953213</v>
       </c>
       <c r="E13">
-        <v>14.17089999553255</v>
+        <v>14.26913404251757</v>
       </c>
       <c r="F13">
-        <v>36.87223969149542</v>
+        <v>51.11794854975867</v>
       </c>
       <c r="G13">
-        <v>3.621329329158109</v>
+        <v>1.94299151216839</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.222695277311534</v>
+        <v>6.783891276839491</v>
       </c>
       <c r="O13">
-        <v>31.69322391484194</v>
+        <v>41.23800164724496</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>13.96982634539394</v>
+        <v>15.52088290241584</v>
       </c>
       <c r="D14">
-        <v>5.63065135006889</v>
+        <v>3.630506471623476</v>
       </c>
       <c r="E14">
-        <v>14.15407937401398</v>
+        <v>14.14870683351902</v>
       </c>
       <c r="F14">
-        <v>36.74546654308774</v>
+        <v>50.59992984459212</v>
       </c>
       <c r="G14">
-        <v>3.62211005420924</v>
+        <v>1.945712493662574</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.221854419159637</v>
+        <v>6.74637010284079</v>
       </c>
       <c r="O14">
-        <v>31.60455638953842</v>
+        <v>40.81586603598464</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>13.95449382897091</v>
+        <v>15.43463214032144</v>
       </c>
       <c r="D15">
-        <v>5.631513831998693</v>
+        <v>3.620769013941131</v>
       </c>
       <c r="E15">
-        <v>14.14383891528421</v>
+        <v>14.07496802564007</v>
       </c>
       <c r="F15">
-        <v>36.66781545417791</v>
+        <v>50.28187356329595</v>
       </c>
       <c r="G15">
-        <v>3.622590907166764</v>
+        <v>1.947377032036288</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.221374153538996</v>
+        <v>6.723498952378659</v>
       </c>
       <c r="O15">
-        <v>31.55030453097936</v>
+        <v>40.55666886465976</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>13.86747070858824</v>
+        <v>14.93938203633862</v>
       </c>
       <c r="D16">
-        <v>5.636774222147579</v>
+        <v>3.566863337161944</v>
       </c>
       <c r="E16">
-        <v>14.08612531612187</v>
+        <v>13.65266492937937</v>
       </c>
       <c r="F16">
-        <v>36.22297902924894</v>
+        <v>48.44691444306201</v>
       </c>
       <c r="G16">
-        <v>3.62538699510964</v>
+        <v>1.95689034791276</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.219155059316932</v>
+        <v>6.59408127997655</v>
       </c>
       <c r="O16">
-        <v>31.24040815154056</v>
+        <v>39.06107800152539</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>13.81485638975998</v>
+        <v>14.63453158926609</v>
       </c>
       <c r="D17">
-        <v>5.64028433899758</v>
+        <v>3.535394668693428</v>
       </c>
       <c r="E17">
-        <v>14.05159630043361</v>
+        <v>13.39369933547147</v>
       </c>
       <c r="F17">
-        <v>35.95036740577846</v>
+        <v>47.30950414085309</v>
       </c>
       <c r="G17">
-        <v>3.627138571631217</v>
+        <v>1.962711223866103</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.218269343641715</v>
+        <v>6.516095195283114</v>
       </c>
       <c r="O17">
-        <v>31.05128235415341</v>
+        <v>38.13381408102221</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>13.7848857124775</v>
+        <v>14.45875805168955</v>
       </c>
       <c r="D18">
-        <v>5.642407044972813</v>
+        <v>3.517849141988632</v>
       </c>
       <c r="E18">
-        <v>14.03206227613798</v>
+        <v>13.2447425675082</v>
       </c>
       <c r="F18">
-        <v>35.79373059941138</v>
+        <v>46.65071808046153</v>
       </c>
       <c r="G18">
-        <v>3.628159406073175</v>
+        <v>1.96605643087428</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.217934644857726</v>
+        <v>6.471734464572896</v>
       </c>
       <c r="O18">
-        <v>30.94290182568165</v>
+        <v>37.59665511190987</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>13.77478901584925</v>
+        <v>14.39916574433034</v>
       </c>
       <c r="D19">
-        <v>5.643143558397613</v>
+        <v>3.512000726612748</v>
       </c>
       <c r="E19">
-        <v>14.02550478367895</v>
+        <v>13.19430366767186</v>
       </c>
       <c r="F19">
-        <v>35.74072956936628</v>
+        <v>46.42685470523863</v>
       </c>
       <c r="G19">
-        <v>3.628507344417283</v>
+        <v>1.967188827588359</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.217851327196829</v>
+        <v>6.456797746434163</v>
       </c>
       <c r="O19">
-        <v>30.90627823508239</v>
+        <v>37.41410569764928</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>13.82042726717822</v>
+        <v>14.66702704926739</v>
       </c>
       <c r="D20">
-        <v>5.639899934923479</v>
+        <v>3.538686452178594</v>
       </c>
       <c r="E20">
-        <v>14.05523830757428</v>
+        <v>13.42126646066816</v>
       </c>
       <c r="F20">
-        <v>35.97937193093664</v>
+        <v>47.43105147332233</v>
       </c>
       <c r="G20">
-        <v>3.626950730202498</v>
+        <v>1.962091932354596</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.218345543099947</v>
+        <v>6.524345268256434</v>
       </c>
       <c r="O20">
-        <v>31.07137460360341</v>
+        <v>38.23291346768299</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>13.97719329052193</v>
+        <v>15.56222755873743</v>
       </c>
       <c r="D21">
-        <v>5.630243397387478</v>
+        <v>3.635210734643105</v>
       </c>
       <c r="E21">
-        <v>14.15900696467694</v>
+        <v>14.1840733749125</v>
       </c>
       <c r="F21">
-        <v>36.78270297203278</v>
+        <v>50.75223995908953</v>
       </c>
       <c r="G21">
-        <v>3.621880187184462</v>
+        <v>1.944913739950204</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.222094150543068</v>
+        <v>6.757367551335011</v>
       </c>
       <c r="O21">
-        <v>31.63058798430457</v>
+        <v>40.93998657555962</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>14.0820713647512</v>
+        <v>16.14474327494898</v>
       </c>
       <c r="D22">
-        <v>5.624861408286137</v>
+        <v>3.703997103042255</v>
       </c>
       <c r="E22">
-        <v>14.22964135465721</v>
+        <v>14.68365970767416</v>
       </c>
       <c r="F22">
-        <v>37.3079340442691</v>
+        <v>52.88828504915334</v>
       </c>
       <c r="G22">
-        <v>3.618684413146165</v>
+        <v>1.933598690936573</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.226100839348996</v>
+        <v>6.914595059633695</v>
       </c>
       <c r="O22">
-        <v>31.99883269342864</v>
+        <v>42.68050702900395</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>14.02588293528819</v>
+        <v>15.83399977487318</v>
       </c>
       <c r="D23">
-        <v>5.627648625605822</v>
+        <v>3.666721649538517</v>
       </c>
       <c r="E23">
-        <v>14.19168929947763</v>
+        <v>14.41685815725259</v>
       </c>
       <c r="F23">
-        <v>37.02764794139443</v>
+        <v>51.7510550812794</v>
       </c>
       <c r="G23">
-        <v>3.620379297130374</v>
+        <v>1.939649195053647</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.223819945605511</v>
+        <v>6.830198273193611</v>
       </c>
       <c r="O23">
-        <v>31.80207850291596</v>
+        <v>41.7538936408739</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>13.81790780568107</v>
+        <v>14.6523374556375</v>
       </c>
       <c r="D24">
-        <v>5.640073397965302</v>
+        <v>3.537196543458305</v>
       </c>
       <c r="E24">
-        <v>14.05359076728036</v>
+        <v>13.40880360425599</v>
       </c>
       <c r="F24">
-        <v>35.96625868700853</v>
+        <v>47.37611516819656</v>
       </c>
       <c r="G24">
-        <v>3.627035610225263</v>
+        <v>1.962371917418205</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.218310549773793</v>
+        <v>6.520613937518413</v>
       </c>
       <c r="O24">
-        <v>31.06228979734317</v>
+        <v>38.18812334341489</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>13.60481832645837</v>
+        <v>13.36107660358965</v>
       </c>
       <c r="D25">
-        <v>5.657440090125072</v>
+        <v>3.418378716719298</v>
       </c>
       <c r="E25">
-        <v>13.9171410040944</v>
+        <v>12.32111188193889</v>
       </c>
       <c r="F25">
-        <v>34.82835901985344</v>
+        <v>42.48007263441952</v>
       </c>
       <c r="G25">
-        <v>3.63472743262612</v>
+        <v>1.986799265180997</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.219046490638757</v>
+        <v>6.205452475940596</v>
       </c>
       <c r="O25">
-        <v>30.28005906737459</v>
+        <v>34.19401202137513</v>
       </c>
     </row>
   </sheetData>
